--- a/dengue data converted /2012_dengue_extracted.xlsx
+++ b/dengue data converted /2012_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C16237A0-4642-484C-8CBB-30B3963E5425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40D1081-1842-4501-B155-4A9CFD92BF6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60FA273-0B92-504E-A73F-84BC951EF7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,9 +441,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,26 +476,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,26 +511,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -727,23 +693,23 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" customWidth="1"/>
+    <col min="10" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -784,7 +750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
@@ -825,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -866,7 +832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -907,7 +873,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -948,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -989,7 +955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1112,7 +1078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1153,7 +1119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -1194,7 +1160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -1235,7 +1201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1317,7 +1283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1358,7 +1324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -1399,7 +1365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1447,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1488,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1604,7 +1570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -1727,7 +1693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -1768,7 +1734,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -1891,7 +1857,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1932,7 +1898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +1939,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -2014,7 +1980,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2021,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -2178,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -2219,7 +2185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2308,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -2383,7 +2349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2424,7 +2390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -2465,7 +2431,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>70</v>
       </c>
@@ -2547,7 +2513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
@@ -2588,7 +2554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -2670,7 +2636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -2711,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -2752,7 +2718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +2759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -2875,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
@@ -2916,7 +2882,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -2957,7 +2923,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -2998,7 +2964,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -3080,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>25</v>
       </c>
@@ -3121,7 +3087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3128,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -3203,7 +3169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -3285,7 +3251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
@@ -3326,7 +3292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3367,7 +3333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>49</v>
       </c>
@@ -3408,7 +3374,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -3449,7 +3415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -3490,7 +3456,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>64</v>
       </c>
@@ -3572,7 +3538,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
@@ -3613,7 +3579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
@@ -3654,7 +3620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>37</v>
       </c>
@@ -3695,7 +3661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -3736,7 +3702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -3777,7 +3743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -3818,7 +3784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
@@ -3859,7 +3825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>50</v>
       </c>
@@ -3900,7 +3866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>61</v>
       </c>
